--- a/_files/npn-transistor-biasing.xlsx
+++ b/_files/npn-transistor-biasing.xlsx
@@ -11,25 +11,42 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t xml:space="preserve">NPN TRANSISTOR BIASING</t>
   </si>
   <si>
+    <t xml:space="preserve">Vcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vce</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vbe</t>
   </si>
   <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
     <t xml:space="preserve">hFE</t>
   </si>
   <si>
-    <t xml:space="preserve">Vin</t>
+    <t xml:space="preserve">Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ohm</t>
   </si>
   <si>
     <t xml:space="preserve">Ic</t>
@@ -42,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ohm</t>
   </si>
 </sst>
 </file>
@@ -59,6 +73,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -80,12 +95,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF72BF44"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -93,9 +110,10 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +124,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0066B3"/>
         <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EFD4"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -143,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -165,6 +189,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -213,7 +241,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE0EFD4"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -240,15 +268,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>512640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>706320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2138040" y="354960"/>
+          <a:ext cx="1819440" cy="1546920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="350" zoomScaleNormal="350" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -269,8 +339,8 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.642</v>
+      <c r="B3" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -280,16 +350,19 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>234</v>
+      <c r="B4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>3.3</v>
+      <c r="B5" s="6" t="n">
+        <v>0.642</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -299,35 +372,66 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
+      <c r="B6" s="6" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">B6/B4</f>
-        <v>0.00213675213675214</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>3.3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">B5/(3*B7)</f>
-        <v>514.8</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">(B3-B4)/B8</f>
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">B9/B6</f>
+        <v>0.00128205128205128</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">(B7-B5)/(3*B10)</f>
+        <v>691.08</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -338,5 +442,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/_files/npn-transistor-biasing.xlsx
+++ b/_files/npn-transistor-biasing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t xml:space="preserve">NPN TRANSISTOR BIASING</t>
   </si>
@@ -34,28 +34,31 @@
     <t xml:space="preserve">Vce</t>
   </si>
   <si>
+    <t xml:space="preserve">RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ib factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ib</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vbe</t>
   </si>
   <si>
-    <t xml:space="preserve">hFE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ohm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ib</t>
   </si>
   <si>
     <t xml:space="preserve">Rb</t>
@@ -167,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,6 +196,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,9 +286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>706320</xdr:colOff>
+      <xdr:colOff>705960</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -295,7 +302,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2138040" y="354960"/>
-          <a:ext cx="1819440" cy="1546920"/>
+          <a:ext cx="1819080" cy="1546560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -315,10 +322,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="350" zoomScaleNormal="350" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -351,7 +358,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -362,76 +369,84 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>0.642</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>234</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">(B3-B4)/B5</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="n">
-        <f aca="false">(B3-B4)/B8</f>
-        <v>0.3</v>
+        <f aca="false">(B6/B7)*B8</f>
+        <v>0.00427350427350427</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">B9/B6</f>
-        <v>0.00128205128205128</v>
+      <c r="B10" s="6" t="n">
+        <v>0.642</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">(B7-B5)/(3*B10)</f>
-        <v>691.08</v>
+      <c r="B11" s="6" t="n">
+        <v>3.3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <f aca="false">(B11-B10)/B9</f>
+        <v>621.972</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/_files/npn-transistor-biasing.xlsx
+++ b/_files/npn-transistor-biasing.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1_2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t xml:space="preserve">NPN TRANSISTOR BIASING</t>
   </si>
@@ -62,21 +63,43 @@
   </si>
   <si>
     <t xml:space="preserve">Rb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S8550 hfe=363 Vbe=262mv Ic=6.2mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSISTOR BIASING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ic = hFE * (Ib / Ibf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ib = (Vi - Vbe) / Rb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -98,14 +121,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF72BF44"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -113,7 +134,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -170,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,18 +219,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -286,9 +334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>705960</xdr:colOff>
+      <xdr:colOff>704880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -301,13 +349,92 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2138040" y="354960"/>
-          <a:ext cx="1819080" cy="1546560"/>
+          <a:off x="2140560" y="354960"/>
+          <a:ext cx="1820520" cy="1545480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>578520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456840</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>134640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2206440" y="239040"/>
+          <a:ext cx="1506600" cy="1521000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>569880</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3891600" y="253440"/>
+          <a:ext cx="1564920" cy="1382040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -318,22 +445,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="350" zoomScaleNormal="350" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="310" zoomScaleNormal="310" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -369,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -379,9 +504,9 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="7" t="n">
         <f aca="false">(B3-B4)/B5</f>
-        <v>0.333333333333333</v>
+        <v>0.01</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -392,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>234</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,16 +525,16 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="7" t="n">
         <f aca="false">(B6/B7)*B8</f>
-        <v>0.00427350427350427</v>
+        <v>3.2051282051282E-005</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -420,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>0.642</v>
+        <v>0.262</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -441,12 +566,17 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <f aca="false">(B11-B10)/B9</f>
-        <v>621.972</v>
+        <v>94785.6</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -459,4 +589,153 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="310" zoomScaleNormal="310" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>650</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <f aca="false">B6/B8</f>
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="n">
+        <f aca="false">B8/B4*B11*1000</f>
+        <v>0.970873786407767</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="14" t="n">
+        <f aca="false">(B7-B3/1000)/(B12/1000)</f>
+        <v>2729.5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>